--- a/Web/files/ELM prediction/DKI 2/DKI1_PM10_pred.xlsx
+++ b/Web/files/ELM prediction/DKI 2/DKI1_PM10_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wahyu Mubarak S\Downloads\data web\ELM prediction\DKI 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1F5B53-5E2E-49A1-9A54-BB0EBC0E32B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A6DDE4-8469-49C3-BCA0-20A7E2F247F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <t>Actual PM10</t>
   </si>
   <si>
-    <t>Prediksi PM10</t>
+    <t>Predict PM10</t>
   </si>
 </sst>
 </file>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C2164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Web/files/ELM prediction/DKI 2/DKI1_PM10_pred.xlsx
+++ b/Web/files/ELM prediction/DKI 2/DKI1_PM10_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wahyu Mubarak S\Downloads\data web\ELM prediction\DKI 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A6DDE4-8469-49C3-BCA0-20A7E2F247F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6267FF09-2526-43B1-B3A5-D4B9CC9E2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,14 +398,10 @@
   <dimension ref="A1:C2164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/Web/files/ELM prediction/DKI 2/DKI1_PM10_pred.xlsx
+++ b/Web/files/ELM prediction/DKI 2/DKI1_PM10_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wahyu Mubarak S\Downloads\data web\ELM prediction\DKI 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6267FF09-2526-43B1-B3A5-D4B9CC9E2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD3F1D9-998B-4DBF-9C82-9EFB02AB727B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>Actual PM10</t>
+    <t>PM10 Predict</t>
   </si>
   <si>
-    <t>Predict PM10</t>
+    <t>PM10 Actual</t>
   </si>
 </sst>
 </file>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C2164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,10 +408,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
